--- a/soa/in3corp_ISOCORP_SOA_V4_2025.xlsx
+++ b/soa/in3corp_ISOCORP_SOA_V4_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth Asthana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECCFAFE-F731-4E84-8FA0-5E3CD95F7E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729DF71-A280-4620-B650-5471677AE00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="2" r:id="rId1"/>
@@ -1663,23 +1663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1739,16 +1722,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF663B9F-AFCF-410A-A89E-2D264E509ABB}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2134,348 +2134,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="31" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="44"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="44"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="44"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="44"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="44"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="44"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="44"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="44"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20" t="s">
+      <c r="L15" s="47"/>
+      <c r="M15" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="48">
         <v>3</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="15">
+      <c r="L16" s="49"/>
+      <c r="M16" s="51">
         <v>44994</v>
       </c>
-      <c r="N16" s="15"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="48">
         <v>4</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="49"/>
+      <c r="I17" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="17" t="s">
+      <c r="J17" s="49"/>
+      <c r="K17" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="15">
+      <c r="L17" s="49"/>
+      <c r="M17" s="51">
         <v>45844</v>
       </c>
-      <c r="N17" s="15"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I4"/>
-    <mergeCell ref="J1:N4"/>
-    <mergeCell ref="A5:N13"/>
-    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="A16:B16"/>
@@ -2490,20 +2499,11 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I4"/>
+    <mergeCell ref="J1:N4"/>
+    <mergeCell ref="A5:N13"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2514,9 +2514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="4">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>2</v>
@@ -2586,34 +2586,34 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2630,10 +2630,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
@@ -2650,10 +2650,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2670,10 +2670,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -2690,22 +2690,22 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
@@ -2722,10 +2722,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
@@ -2742,10 +2742,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
@@ -2762,22 +2762,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
@@ -2794,10 +2794,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
@@ -2814,10 +2814,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
@@ -2834,22 +2834,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
@@ -2866,10 +2866,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
@@ -2886,10 +2886,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="53"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="9" t="s">
         <v>14</v>
       </c>
@@ -2906,10 +2906,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="9" t="s">
         <v>14</v>
       </c>
@@ -2926,10 +2926,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="9" t="s">
         <v>14</v>
       </c>
@@ -2946,22 +2946,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
@@ -2978,10 +2978,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
@@ -2998,10 +2998,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
@@ -3018,22 +3018,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -3050,10 +3050,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="9" t="s">
         <v>14</v>
       </c>
@@ -3070,10 +3070,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="9" t="s">
         <v>14</v>
       </c>
@@ -3090,22 +3090,22 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
     </row>
     <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -3122,10 +3122,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="9" t="s">
         <v>14</v>
       </c>
@@ -3142,22 +3142,22 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
     </row>
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="9" t="s">
         <v>14</v>
       </c>
@@ -3176,10 +3176,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -3196,10 +3196,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="9" t="s">
         <v>14</v>
       </c>
@@ -3216,10 +3216,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="9" t="s">
         <v>14</v>
       </c>
@@ -3236,10 +3236,10 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="9" t="s">
         <v>14</v>
       </c>
@@ -3256,10 +3256,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="53"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="9" t="s">
         <v>14</v>
       </c>
@@ -3276,10 +3276,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="53"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="9" t="s">
         <v>14</v>
       </c>
@@ -3296,10 +3296,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="53"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="9" t="s">
         <v>14</v>
       </c>
@@ -3316,10 +3316,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="9" t="s">
         <v>14</v>
       </c>
@@ -3336,10 +3336,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="53"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="9" t="s">
         <v>14</v>
       </c>
@@ -3356,10 +3356,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="9" t="s">
         <v>14</v>
       </c>
@@ -3376,10 +3376,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="53"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="9" t="s">
         <v>14</v>
       </c>
@@ -3396,10 +3396,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="53"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="9" t="s">
         <v>14</v>
       </c>
@@ -3416,10 +3416,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="53"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="9" t="s">
         <v>14</v>
       </c>
@@ -3436,10 +3436,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="53"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="9" t="s">
         <v>14</v>
       </c>
@@ -3456,10 +3456,10 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="53"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="9" t="s">
         <v>14</v>
       </c>
@@ -3476,10 +3476,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="53"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="9" t="s">
         <v>14</v>
       </c>
@@ -3496,10 +3496,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="53"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="9" t="s">
         <v>14</v>
       </c>
@@ -3516,10 +3516,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="53"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="9" t="s">
         <v>14</v>
       </c>
@@ -3536,10 +3536,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="53"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="9" t="s">
         <v>14</v>
       </c>
@@ -3556,10 +3556,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="53"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="9" t="s">
         <v>14</v>
       </c>
@@ -3576,10 +3576,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="9" t="s">
         <v>14</v>
       </c>
@@ -3596,10 +3596,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="9" t="s">
         <v>14</v>
       </c>
@@ -3616,10 +3616,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="53"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="9" t="s">
         <v>14</v>
       </c>
@@ -3636,10 +3636,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="9" t="s">
         <v>14</v>
       </c>
@@ -3656,10 +3656,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="53"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -3676,10 +3676,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="53"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
@@ -3696,10 +3696,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="53"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="9" t="s">
         <v>14</v>
       </c>
@@ -3716,10 +3716,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="53"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="9" t="s">
         <v>14</v>
       </c>
@@ -3736,10 +3736,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="53"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="9" t="s">
         <v>14</v>
       </c>
@@ -3756,10 +3756,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="53"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
@@ -3776,10 +3776,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="53"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="9" t="s">
         <v>14</v>
       </c>
@@ -3796,10 +3796,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="53"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="9" t="s">
         <v>14</v>
       </c>
@@ -3816,10 +3816,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="53"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="9" t="s">
         <v>14</v>
       </c>
@@ -3836,10 +3836,10 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="9" t="s">
         <v>14</v>
       </c>
@@ -3856,10 +3856,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="53"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="9" t="s">
         <v>14</v>
       </c>
@@ -3876,10 +3876,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="53"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="9" t="s">
         <v>14</v>
       </c>
@@ -3896,22 +3896,22 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
     </row>
     <row r="74" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="53"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="9" t="s">
         <v>14</v>
       </c>
@@ -3928,10 +3928,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="53"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="9" t="s">
         <v>14</v>
       </c>
@@ -3948,10 +3948,10 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="53"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="9" t="s">
         <v>14</v>
       </c>
@@ -3968,10 +3968,10 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="53"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="9" t="s">
         <v>14</v>
       </c>
@@ -3988,10 +3988,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="53"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="9" t="s">
         <v>14</v>
       </c>
@@ -4008,10 +4008,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="9" t="s">
         <v>14</v>
       </c>
@@ -4028,10 +4028,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="53"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="9" t="s">
         <v>14</v>
       </c>
@@ -4048,10 +4048,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="53"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="9" t="s">
         <v>14</v>
       </c>
@@ -4068,22 +4068,22 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="56" t="s">
+      <c r="A82" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
     </row>
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="9" t="s">
         <v>14</v>
       </c>
@@ -4100,10 +4100,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="9" t="s">
         <v>14</v>
       </c>
@@ -4120,10 +4120,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="53" t="s">
+      <c r="A85" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="9" t="s">
         <v>14</v>
       </c>
@@ -4140,10 +4140,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="9" t="s">
         <v>14</v>
       </c>
@@ -4160,10 +4160,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="9" t="s">
         <v>14</v>
       </c>
@@ -4180,10 +4180,10 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B88" s="53"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="9" t="s">
         <v>14</v>
       </c>
@@ -4200,10 +4200,10 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="9" t="s">
         <v>14</v>
       </c>
@@ -4220,10 +4220,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="53" t="s">
+      <c r="A90" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="53"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="9" t="s">
         <v>14</v>
       </c>
@@ -4240,10 +4240,10 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="53"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="9" t="s">
         <v>14</v>
       </c>
@@ -4260,10 +4260,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="53" t="s">
+      <c r="A92" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B92" s="53"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="9" t="s">
         <v>14</v>
       </c>
@@ -4280,10 +4280,10 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B93" s="53"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="9" t="s">
         <v>14</v>
       </c>
@@ -4300,10 +4300,10 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="53"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="9" t="s">
         <v>14</v>
       </c>
@@ -4320,10 +4320,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="53" t="s">
+      <c r="A95" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="53"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="9" t="s">
         <v>14</v>
       </c>
@@ -4340,10 +4340,10 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B96" s="53"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="9" t="s">
         <v>14</v>
       </c>
@@ -4360,22 +4360,22 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="56" t="s">
+      <c r="A97" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B97" s="56"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
     </row>
     <row r="98" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="53"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="9" t="s">
         <v>14</v>
       </c>
@@ -4392,10 +4392,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="53"/>
+      <c r="B99" s="54"/>
       <c r="C99" s="9" t="s">
         <v>14</v>
       </c>
@@ -4412,10 +4412,10 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="53"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="9" t="s">
         <v>14</v>
       </c>
@@ -4432,10 +4432,10 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B101" s="53"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="9" t="s">
         <v>14</v>
       </c>
@@ -4452,10 +4452,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="53"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="9" t="s">
         <v>14</v>
       </c>
@@ -4472,10 +4472,10 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="53"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="9" t="s">
         <v>14</v>
       </c>
@@ -4494,10 +4494,10 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A104" s="53" t="s">
+      <c r="A104" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B104" s="53"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="9" t="s">
         <v>14</v>
       </c>
@@ -4514,10 +4514,10 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="53"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="9" t="s">
         <v>14</v>
       </c>
@@ -4534,10 +4534,10 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="53"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="9" t="s">
         <v>14</v>
       </c>
@@ -4554,10 +4554,10 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="53" t="s">
+      <c r="A107" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="53"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="9" t="s">
         <v>14</v>
       </c>
@@ -4574,10 +4574,10 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B108" s="53"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="9" t="s">
         <v>14</v>
       </c>
@@ -4594,10 +4594,10 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="53" t="s">
+      <c r="A109" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="53"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="9" t="s">
         <v>14</v>
       </c>
@@ -4614,10 +4614,10 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="B110" s="53"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="9" t="s">
         <v>14</v>
       </c>
@@ -4634,10 +4634,10 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B111" s="53"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="9" t="s">
         <v>14</v>
       </c>
@@ -4654,10 +4654,10 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="9" t="s">
         <v>14</v>
       </c>
@@ -4676,10 +4676,10 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="53"/>
+      <c r="B113" s="54"/>
       <c r="C113" s="9" t="s">
         <v>14</v>
       </c>
@@ -4696,10 +4696,10 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A114" s="53" t="s">
+      <c r="A114" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="9" t="s">
         <v>14</v>
       </c>
@@ -4718,10 +4718,10 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="B115" s="53"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="9" t="s">
         <v>14</v>
       </c>
@@ -4738,10 +4738,10 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="53"/>
+      <c r="B116" s="54"/>
       <c r="C116" s="9" t="s">
         <v>14</v>
       </c>
@@ -4758,10 +4758,10 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="B117" s="53"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="9" t="s">
         <v>14</v>
       </c>
@@ -4778,10 +4778,10 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="B118" s="53"/>
+      <c r="B118" s="54"/>
       <c r="C118" s="9" t="s">
         <v>14</v>
       </c>
@@ -4798,10 +4798,10 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="53" t="s">
+      <c r="A119" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="B119" s="53"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="9" t="s">
         <v>14</v>
       </c>
@@ -4818,10 +4818,10 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="B120" s="53"/>
+      <c r="B120" s="54"/>
       <c r="C120" s="9" t="s">
         <v>14</v>
       </c>
@@ -4838,10 +4838,10 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="53" t="s">
+      <c r="A121" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B121" s="53"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="9" t="s">
         <v>14</v>
       </c>
@@ -4858,10 +4858,10 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="53" t="s">
+      <c r="A122" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B122" s="53"/>
+      <c r="B122" s="54"/>
       <c r="C122" s="9" t="s">
         <v>14</v>
       </c>
@@ -4878,10 +4878,10 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="B123" s="53"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="9" t="s">
         <v>14</v>
       </c>
@@ -4898,10 +4898,10 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="53"/>
+      <c r="B124" s="54"/>
       <c r="C124" s="9" t="s">
         <v>14</v>
       </c>
@@ -4918,10 +4918,10 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="B125" s="53"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="9" t="s">
         <v>14</v>
       </c>
@@ -4938,10 +4938,10 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="53" t="s">
+      <c r="A126" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="B126" s="53"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="9" t="s">
         <v>14</v>
       </c>
@@ -4958,10 +4958,10 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="B127" s="53"/>
+      <c r="B127" s="54"/>
       <c r="C127" s="9" t="s">
         <v>14</v>
       </c>
@@ -4978,10 +4978,10 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="53" t="s">
+      <c r="A128" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="B128" s="53"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="9" t="s">
         <v>14</v>
       </c>
@@ -4998,10 +4998,10 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="53" t="s">
+      <c r="A129" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="B129" s="53"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="9" t="s">
         <v>14</v>
       </c>
@@ -5018,10 +5018,10 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="53" t="s">
+      <c r="A130" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="B130" s="53"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="9" t="s">
         <v>14</v>
       </c>
@@ -5038,10 +5038,10 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="53" t="s">
+      <c r="A131" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="B131" s="53"/>
+      <c r="B131" s="54"/>
       <c r="C131" s="9" t="s">
         <v>14</v>
       </c>
@@ -5062,6 +5062,115 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A5:H5"/>
@@ -5086,115 +5195,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
